--- a/Bugs_PaginaLenovo.xlsx
+++ b/Bugs_PaginaLenovo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gx_jo\Desktop\Proyecto Personal Git Hub\Proyecto Lenovo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gx_jo\Desktop\Proyecto Personal Git Hub\ProyectoLenovo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E9FFBA-7DF7-44F1-BFBA-43DC27EBF714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0ADC55-4C52-4406-BA9F-30CC0311650F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{08D6E389-2B52-40D8-ADB8-D47B81300FA3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>EVIDENCIA</t>
+  </si>
+  <si>
+    <t>Visualizar imagen : ID1</t>
   </si>
 </sst>
 </file>
@@ -213,36 +216,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -259,55 +262,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19048</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>3409950</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1145674</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11670AC6-5C6B-4EF0-9DD6-D27C5F4D7523}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16021050" y="228598"/>
-          <a:ext cx="3257550" cy="1831476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -610,7 +564,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,68 +626,65 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="8">
         <v>44452</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="7"/>
+      <c r="M2" s="11" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="12" t="s">
+    <row r="3" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="11"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="A2:A3"/>
@@ -741,8 +692,12 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Bugs_PaginaLenovo.xlsx
+++ b/Bugs_PaginaLenovo.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gx_jo\Desktop\Proyecto Personal Git Hub\ProyectoLenovo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0ADC55-4C52-4406-BA9F-30CC0311650F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40668626-367D-449F-A324-4550B9E1FF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{08D6E389-2B52-40D8-ADB8-D47B81300FA3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bugs" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -100,6 +100,42 @@
   </si>
   <si>
     <t>Visualizar imagen : ID1</t>
+  </si>
+  <si>
+    <t>Windows 7 - Pagina de listado de productos  - El boton de filtro por precio no esta funcionando correctamente</t>
+  </si>
+  <si>
+    <t>Funcional</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>2. Hace click en el icono de busqueda ubicado en la parte superior derecha</t>
+  </si>
+  <si>
+    <t>3. Escribir portatil y dar enter</t>
+  </si>
+  <si>
+    <t>4. En el lado izquiero encontrar el area de filtros por precio</t>
+  </si>
+  <si>
+    <t>5. Seleccionar la opcion entre 1.000.000  y 1.999.999</t>
+  </si>
+  <si>
+    <t>6. Quitar el filtro</t>
+  </si>
+  <si>
+    <t>7. Seleccionar la opcion entre 3.000.000 y 3.999.999</t>
+  </si>
+  <si>
+    <t>Visualizar portatiles entre el rango de precio seleccionado en el filtro</t>
+  </si>
+  <si>
+    <t>Se visualizan portatiles con diferentes precios con respecto al rango de precio seleccionado</t>
+  </si>
+  <si>
+    <t>Visualizar imagen : ID2 - ID3</t>
   </si>
 </sst>
 </file>
@@ -137,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -207,11 +243,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -221,30 +275,48 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -561,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEFFA3C-5EAF-45D6-AC90-0324EDAFBF32}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +644,7 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.7109375" customWidth="1"/>
@@ -626,65 +698,208 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="18">
         <v>44452</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="12"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="18">
+        <v>44458</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="24">
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="A2:A3"/>
@@ -697,6 +912,18 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L4:L10"/>
+    <mergeCell ref="M4:M10"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="H4:H10"/>
+    <mergeCell ref="I4:I10"/>
+    <mergeCell ref="J4:J10"/>
+    <mergeCell ref="K4:K10"/>
+    <mergeCell ref="F4:F10"/>
+    <mergeCell ref="E4:E10"/>
+    <mergeCell ref="D4:D10"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="B4:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bugs_PaginaLenovo.xlsx
+++ b/Bugs_PaginaLenovo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gx_jo\Desktop\Proyecto Personal Git Hub\ProyectoLenovo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40668626-367D-449F-A324-4550B9E1FF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2574EC2E-7027-435D-9D2C-9FF0357EB8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{08D6E389-2B52-40D8-ADB8-D47B81300FA3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{08D6E389-2B52-40D8-ADB8-D47B81300FA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Bugs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Windows 7 - Boton de inicio de sesion - No deberia visualizarse la opcion de cerrar sesion sin antes previamente haber ingresado</t>
   </si>
   <si>
-    <t>Baja</t>
-  </si>
-  <si>
     <t>Ser un usuario nuevo, no tener cuentas activas no haberse registrado</t>
   </si>
   <si>
@@ -136,6 +133,27 @@
   </si>
   <si>
     <t>Visualizar imagen : ID2 - ID3</t>
+  </si>
+  <si>
+    <t>2. Desplazarse a la derecha superior de la pagina</t>
+  </si>
+  <si>
+    <t>Window 10 - Pagina principal - El boton "SOLUCIONES" esta cruzado con el boton "LENOVO PRO"</t>
+  </si>
+  <si>
+    <t>Bajo</t>
+  </si>
+  <si>
+    <t>Visualizar el nombre del boton SOLUCIONES y de LENOVO PRO correctamente</t>
+  </si>
+  <si>
+    <t>Los botones SOLUCIONES y LENOVO PRO estan entre cruzados</t>
+  </si>
+  <si>
+    <t>Chrome Versión 94.0.4606.61 (Build oficial) (64 bits)</t>
+  </si>
+  <si>
+    <t>ID4</t>
   </si>
 </sst>
 </file>
@@ -173,7 +191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -261,11 +279,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -280,43 +360,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -633,10 +742,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEFFA3C-5EAF-45D6-AC90-0324EDAFBF32}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,212 +805,291 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="F2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="K2" s="14">
+        <v>44452</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="18">
-        <v>44452</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>24</v>
+      <c r="M2" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="17"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="14">
+        <v>44458</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="18">
-        <v>44458</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="10"/>
+        <v>27</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+    </row>
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="10"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
     </row>
-    <row r="10" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="11"/>
+    <row r="11" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="23">
+        <v>44465</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="35">
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="L4:L10"/>
+    <mergeCell ref="M4:M10"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="H4:H10"/>
+    <mergeCell ref="I4:I10"/>
+    <mergeCell ref="J4:J10"/>
+    <mergeCell ref="K4:K10"/>
+    <mergeCell ref="F4:F10"/>
+    <mergeCell ref="E4:E10"/>
+    <mergeCell ref="D4:D10"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="B4:B10"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="A2:A3"/>
@@ -912,18 +1102,6 @@
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L4:L10"/>
-    <mergeCell ref="M4:M10"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="H4:H10"/>
-    <mergeCell ref="I4:I10"/>
-    <mergeCell ref="J4:J10"/>
-    <mergeCell ref="K4:K10"/>
-    <mergeCell ref="F4:F10"/>
-    <mergeCell ref="E4:E10"/>
-    <mergeCell ref="D4:D10"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="B4:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bugs_PaginaLenovo.xlsx
+++ b/Bugs_PaginaLenovo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gx_jo\Desktop\Proyecto Personal Git Hub\ProyectoLenovo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2574EC2E-7027-435D-9D2C-9FF0357EB8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A6A44F-67D7-4F78-82E6-3D0BDD0DDF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{08D6E389-2B52-40D8-ADB8-D47B81300FA3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{08D6E389-2B52-40D8-ADB8-D47B81300FA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Bugs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -96,9 +96,6 @@
     <t>EVIDENCIA</t>
   </si>
   <si>
-    <t>Visualizar imagen : ID1</t>
-  </si>
-  <si>
     <t>Windows 7 - Pagina de listado de productos  - El boton de filtro por precio no esta funcionando correctamente</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>Se visualizan portatiles con diferentes precios con respecto al rango de precio seleccionado</t>
   </si>
   <si>
-    <t>Visualizar imagen : ID2 - ID3</t>
-  </si>
-  <si>
     <t>2. Desplazarse a la derecha superior de la pagina</t>
   </si>
   <si>
@@ -154,6 +148,33 @@
   </si>
   <si>
     <t>ID4</t>
+  </si>
+  <si>
+    <t>2. Ir al boton Pc &amp; Tablets</t>
+  </si>
+  <si>
+    <t>3. Seleccionar icono de portatiles</t>
+  </si>
+  <si>
+    <t>Visualizar correctamente la pagina</t>
+  </si>
+  <si>
+    <t>En la parte superior el letrero en azul de think pad afecta visualmente  el area de mensaje principal, adicionalmente al lado izquiero se observa una imagen rota</t>
+  </si>
+  <si>
+    <t>Chrome Versión 94.0.4606.71 (Build oficial) (64 bits)</t>
+  </si>
+  <si>
+    <t>ID5</t>
+  </si>
+  <si>
+    <t>Windows 10 - Pagina de listado de productos - En el apartado de PC&amp;Tables - portatiles no se visualiza correctamente</t>
+  </si>
+  <si>
+    <t>ID2 - ID3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID1</t>
   </si>
 </sst>
 </file>
@@ -191,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -316,18 +337,7 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -336,9 +346,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -360,73 +368,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -742,12 +754,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEFFA3C-5EAF-45D6-AC90-0324EDAFBF32}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +772,7 @@
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.7109375" customWidth="1"/>
     <col min="8" max="8" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" customWidth="1"/>
     <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.140625" customWidth="1"/>
@@ -809,275 +821,366 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="17" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="19">
         <v>44452</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>23</v>
+      <c r="M2" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="13"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="7"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="20"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="17" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="19">
         <v>44458</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>35</v>
+      <c r="M4" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
       <c r="G5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+        <v>26</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="16"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+        <v>27</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="16"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+        <v>28</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="16"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="16"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+        <v>30</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="16"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+        <v>31</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="16"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="14"/>
     </row>
     <row r="11" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="24">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="I11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="J11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="10">
+        <v>44465</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="27"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>4</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G13" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="21" t="s">
+      <c r="H13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="23">
-        <v>44465</v>
-      </c>
-      <c r="L11" s="20" t="s">
+      <c r="K13" s="19">
+        <v>44478</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="M11" s="24" t="s">
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="28" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="29"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
+  <mergeCells count="48">
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
     <mergeCell ref="L4:L10"/>
     <mergeCell ref="M4:M10"/>
     <mergeCell ref="A4:A10"/>
@@ -1090,18 +1193,17 @@
     <mergeCell ref="D4:D10"/>
     <mergeCell ref="C4:C10"/>
     <mergeCell ref="B4:B10"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
